--- a/LGC_Motiv_results/pilots_v6_IP_Nback2_NOtaskSwitching_NOriskRepeatAfterFail/Fmax_theorique.xlsx
+++ b/LGC_Motiv_results/pilots_v6_IP_Nback2_NOtaskSwitching_NOriskRepeatAfterFail/Fmax_theorique.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE00209-F838-4241-8CB2-2983C5424FD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0447645A-7EEC-4EAD-BA65-6B745693F5D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Pli antérieur</t>
   </si>
@@ -80,21 +80,6 @@
   </si>
   <si>
     <t>P15</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>orianne</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
 </sst>
 </file>
@@ -413,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -438,7 +423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -446,8 +431,10 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -455,8 +442,10 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -464,87 +453,188 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="E5" s="1">
         <v>24</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LGC_Motiv_results/pilots_v6_IP_Nback2_NOtaskSwitching_NOriskRepeatAfterFail/Fmax_theorique.xlsx
+++ b/LGC_Motiv_results/pilots_v6_IP_Nback2_NOtaskSwitching_NOriskRepeatAfterFail/Fmax_theorique.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0447645A-7EEC-4EAD-BA65-6B745693F5D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14555CE3-A487-4B12-AF62-5CB7430DBE32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Pli antérieur</t>
   </si>
@@ -80,6 +80,30 @@
   </si>
   <si>
     <t>P15</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>OD</t>
   </si>
 </sst>
 </file>
@@ -398,243 +422,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>24.2</v>
+      </c>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1">
+        <v>22.6</v>
+      </c>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>5.5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>27.5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>24</v>
       </c>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>3.5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>27</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>27.5</v>
       </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>4.5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>28</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>27.5</v>
       </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>26</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>25</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>23</v>
+      </c>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20.5</v>
+      </c>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1">
+        <v>30</v>
+      </c>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>4.5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>24</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>23.5</v>
       </c>
-      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>27.5</v>
+      </c>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1">
+        <v>26</v>
+      </c>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LGC_Motiv_results/pilots_v6_IP_Nback2_NOtaskSwitching_NOriskRepeatAfterFail/Fmax_theorique.xlsx
+++ b/LGC_Motiv_results/pilots_v6_IP_Nback2_NOtaskSwitching_NOriskRepeatAfterFail/Fmax_theorique.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14555CE3-A487-4B12-AF62-5CB7430DBE32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E56B809-DBA7-4894-8022-7F0EBBF67440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Pli antérieur</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>OD</t>
+  </si>
+  <si>
+    <t>FF</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,10 +730,21 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1">
+        <v>24</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>

--- a/LGC_Motiv_results/pilots_v6_IP_Nback2_NOtaskSwitching_NOriskRepeatAfterFail/Fmax_theorique.xlsx
+++ b/LGC_Motiv_results/pilots_v6_IP_Nback2_NOtaskSwitching_NOriskRepeatAfterFail/Fmax_theorique.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E56B809-DBA7-4894-8022-7F0EBBF67440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820875A5-09BF-4BED-9CD4-94228BDE6733}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Pli antérieur</t>
   </si>
@@ -107,6 +107,30 @@
   </si>
   <si>
     <t>FF</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>WL</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>SG</t>
   </si>
 </sst>
 </file>
@@ -428,17 +452,17 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -455,7 +479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -477,7 +501,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -499,7 +523,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -521,10 +545,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
       <c r="C5" s="1">
         <v>5.5</v>
       </c>
@@ -540,10 +567,13 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
@@ -559,10 +589,13 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
       <c r="C7" s="1">
         <v>4.5</v>
       </c>
@@ -578,10 +611,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -597,7 +633,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -619,7 +655,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -641,7 +677,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -663,10 +699,13 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" s="1">
         <v>4</v>
       </c>
@@ -682,7 +721,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -704,7 +743,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -726,7 +765,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -748,18 +787,47 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1">
+        <v>29.5</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1">
+        <v>27</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
